--- a/resources/Final Results/Diagrams.xlsx
+++ b/resources/Final Results/Diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deard\Documents\Diss\Minesweeper-Assistant\resources\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6709AE2-4D4B-43DD-A175-1900D734DAD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB7F9D-23F1-48B6-AD20-1C063905D8BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1EE9196-5AEC-4D22-8406-5FBDC98CD1BE}"/>
+    <workbookView xWindow="3240" yWindow="2832" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C1EE9196-5AEC-4D22-8406-5FBDC98CD1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -4866,8 +4866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031836F2-339F-4CE2-82D0-2B7CE4711480}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
